--- a/Raj Chudasama/2022-12-18/ALDFWTP Guest Services/EXPECTED ARRIVALS 12-18-22.xlsx
+++ b/Raj Chudasama/2022-12-18/ALDFWTP Guest Services/EXPECTED ARRIVALS 12-18-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>Guest Name</t>
   </si>
@@ -91,10 +91,7 @@
     <t>01-Nov-22</t>
   </si>
   <si>
-    <t xml:space="preserve"> 18-Dec-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 29-Nov-22</t>
+    <t>29-Nov-22</t>
   </si>
   <si>
     <t>22-Dec-22</t>
@@ -516,10 +513,10 @@
         <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -539,10 +536,10 @@
         <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -562,10 +559,10 @@
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -585,10 +582,10 @@
         <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -605,13 +602,13 @@
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -631,10 +628,10 @@
         <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -651,13 +648,13 @@
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
         <v>30</v>
-      </c>
-      <c r="I8" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
